--- a/test/templates/t3.xlsx
+++ b/test/templates/t3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7622D5D7-3022-41C1-8B3F-9C64CD4D6288}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E513B0B4-4AF9-45EE-AC25-8133FB7176BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,22 @@
     <t>Plan table</t>
   </si>
   <si>
-    <t>Extracted on ${demo.extractDate}</t>
-  </si>
-  <si>
-    <t>${revision}</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>${table:planData.name}</t>
+    <t>Extracted on {demo.extractDate}</t>
   </si>
   <si>
-    <t>${table:planData.role.name}</t>
+    <t>{revision}</t>
+  </si>
+  <si>
+    <t>{table:planData.name}</t>
+  </si>
+  <si>
+    <t>{table:planData.role.name}</t>
   </si>
 </sst>
 </file>
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-\£* #,##0.00_-;&quot;-£&quot;* #,##0.00_-;_-\£* \-??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-\£* #,##0.00_-;&quot;-£&quot;* #,##0.00_-;_-\£* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -174,20 +174,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -575,48 +575,48 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.44140625"/>
-    <col min="2" max="2" width="23.77734375"/>
+    <col min="1" max="1" width="4.42578125"/>
+    <col min="2" max="2" width="23.7109375"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="1024" width="10.6640625"/>
+    <col min="4" max="1024" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="19.8" thickBot="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3" ht="13.8" thickTop="1"/>
+    <row r="3" spans="2:3" ht="13.5" thickTop="1"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/test/templates/t3.xlsx
+++ b/test/templates/t3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E513B0B4-4AF9-45EE-AC25-8133FB7176BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353953D-5829-46DB-8814-4DB0C5492D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
     <t>{revision}</t>
   </si>
   <si>
-    <t>{table:planData.name}</t>
+    <t>{#planData.name}</t>
   </si>
   <si>
-    <t>{table:planData.role.name}</t>
+    <t>{#planData.role.name}</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
